--- a/assets/disciplinas/LOM3114.xlsx
+++ b/assets/disciplinas/LOM3114.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,37 +70,40 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>5840521 - Rosa Ana Conte</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Semestral</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Estudo de Casos, Aulas expositivas e em laboratório computacional, trabalhos em grupo e exercícios comentados.</t>
-  </si>
-  <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Semestral</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
-  </si>
-  <si>
-    <t>Critério:</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
@@ -605,26 +608,26 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -642,10 +645,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -653,45 +656,45 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3114.xlsx
+++ b/assets/disciplinas/LOM3114.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Utilização de conceitos básicos da estatística para estudar influência de variáveis independentes sobre variáveis dependentes (respostas) em Processos da Engenharia . Utilização de ferramentas de planejamento experimental, dimensionamento das atividades experimentais de pesquisa e atividades industriais, minimizando tempo e custos, identificando quais são as variáveis de processo que podem influenciar significativamente nos sistemas estudados. Permitir a utilização de ferramentas estatísticas usando planilhas eletrônicas, para comparar metodologias e resultados em estudo de casos reais em Engenharia.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840521 - Rosa Ana Conte</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Trabalho em planilhas eletrônicas e Estudo de Casos no Excel e Minitab; Introdução à Estatística Descritiva; Estatística de Inferência usando planilhas eletrônicas; distribuições amostrais; intervalos de confiança; testes de hipóteses ; testes ANOVA; estudo de casos em engenharia, meio ambiente, agricultura, gerenciamento de resíduos, dentre outros.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>O papel da estatística na Engenharia: métodos de coleta de dados. Trabalho em planilhas eletrônicas em Excel •Revisão de conceitos estatísticos fundamentais da estatística descritiva: população, amostra, tipos de erros associados a medidas experimentais.•Distribuições amostrais: distribuição normal, normal padronizada, de Student;•Estatística de inferência: estimativas, intervalos de confiança. •Testes de hipóteses para média aritmética e para duas populações: testes t uni- e bilateral, teste F, rejeição de valor suspeito; teste para independência ou homogeneidade da população • Análise de Variância (ANOVA): aplicações a problemas experimentais: fator único e 2 fatores; identificação de fatores significativos nos experimentos.•Planejamento de Experimentos: vantagens dos experimentos fatoriais em relação aos experimentos do tipo um fator por vez; varielaboração do planejamento fatorial Completo do tipo 2^k e fracionado, e superfície de resposta Utilização de Minitab no planejamento e tomada de decisão de problemas experimentais. •Os conceitos desenvolvidos serão aplicados no estudo de casos reais nas áreas de engenharia, finanças, meio ambiente, agricultura, gerenciamento de resíduos, dentre outros.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Estudo de Casos, Aulas expositivas e em laboratório computacional, trabalhos em grupo e exercícios comentados.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Estudo de Casos, Aulas expositivas e em laboratório computacional, trabalhos em grupo e exercícios comentados.</t>
+    <t>Média aritmética de trabalhos propostos ao longo do curso (40%) e avaliação individual final (60%).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de trabalhos propostos ao longo do curso (40%) e avaliação individual final (60%).</t>
+    <t>Não haverá exame de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Não haverá exame de recuperação.</t>
+    <t>•Levine, D.M et al. Estatística: teoria e Aplicações usando MicrosoftTM Excel em Português, 6a ed, Rio de Janeiro:LTC, 2012. •Mann, P.S. Introdução à Estatística, 8a ed, Rio deJaneiro:LTC, 2015. •Webster, A.L. Estatística Aplicada à Administração e Economia, São Paulo:McGraw Hill, 2007.•Johnson, R. e Kuby, P. ESTAT, São Paulo:Cengage Learning, 2014.•Barros Neto, B. , Scarminio, I.S. e Bruns, R.E. Planejamento e Otimização de Experimentos, 2a. ed, Campinas: Editora da UNICAMP, 1995.•Miller, JC and Miller, JN Statistical for Analytical Chemistry, Chichester: Ellishor Wood Ltd. 1988.•https://www.real-statistics.com• Kiernan, D. Natural Resources Biometrics: https://milnepublishing. genesco.edu/natural-resources-biometrics</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +612,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
